--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15998" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -463,6 +463,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -760,14 +761,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="53.1875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="53.1640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>MPCbS Max Potential Capacity by Source</t>
@@ -775,16 +776,14 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Arizona</t>
-        </is>
-      </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>&lt;- Enter state name here</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="C1" s="66" t="n">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="B2" s="12">
         <f>LOOKUP(B1,H3:I52,I3:I52)</f>
         <v/>
@@ -800,7 +799,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Source:</t>
@@ -822,7 +821,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
+    <row r="4">
       <c r="B4" s="12" t="inlineStr">
         <is>
           <t>National Renewable Energy Laboratory</t>
@@ -839,7 +838,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="58">
+    <row r="5">
       <c r="B5" s="7" t="n">
         <v>2012</v>
       </c>
@@ -854,7 +853,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="58">
+    <row r="6">
       <c r="B6" s="12" t="inlineStr">
         <is>
           <t>U.S. Renewable Energy Technical Potentials: A GIS-Based Analysis</t>
@@ -871,7 +870,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="58">
+    <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
           <t>http://www.nrel.gov/docs/fy12osti/51946.pdf</t>
@@ -888,7 +887,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="58">
+    <row r="8">
       <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Figures 1-6</t>
@@ -905,7 +904,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="58">
+    <row r="9">
       <c r="H9" s="6" t="inlineStr">
         <is>
           <t>Connecticut</t>
@@ -917,7 +916,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="58">
+    <row r="10">
       <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Onshore Wind</t>
@@ -934,7 +933,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="58">
+    <row r="11">
       <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Department of Energy</t>
@@ -951,7 +950,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="58">
+    <row r="12">
       <c r="B12" s="7" t="n">
         <v>2018</v>
       </c>
@@ -966,7 +965,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="58">
+    <row r="13">
       <c r="B13" s="12" t="inlineStr">
         <is>
           <t>US Installed and Potential Wind Power Capacity and Generation</t>
@@ -983,7 +982,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="58">
+    <row r="14">
       <c r="B14" s="12" t="inlineStr">
         <is>
           <t>https://windexchange.energy.gov/maps-data/321</t>
@@ -1000,7 +999,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="58">
+    <row r="15">
       <c r="B15" s="12" t="inlineStr">
         <is>
           <t>"Potential"</t>
@@ -1017,7 +1016,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="58">
+    <row r="16">
       <c r="H16" s="6" t="inlineStr">
         <is>
           <t>Indiana</t>
@@ -1029,7 +1028,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="58">
+    <row r="17">
       <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Hydropower supplement (See worksheet for details)</t>
@@ -1046,7 +1045,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="58">
+    <row r="18">
       <c r="B18" s="12" t="inlineStr">
         <is>
           <t>US Department of Energy</t>
@@ -1063,7 +1062,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="58">
+    <row r="19">
       <c r="B19" s="7" t="n">
         <v>2016</v>
       </c>
@@ -1078,7 +1077,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="58">
+    <row r="20">
       <c r="B20" s="12" t="inlineStr">
         <is>
           <t>Chapter 3: Assessment of National Hydropower Potential</t>
@@ -2480,23 +2479,23 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="12" customWidth="1" style="58" min="1" max="1"/>
-    <col width="15.8125" customWidth="1" style="58" min="2" max="2"/>
+    <col width="15.83203125" customWidth="1" style="58" min="2" max="2"/>
     <col width="20.5" customWidth="1" style="58" min="3" max="3"/>
-    <col width="7.6875" customWidth="1" style="58" min="4" max="4"/>
-    <col width="19.6875" customWidth="1" style="58" min="5" max="5"/>
-    <col width="13.3125" customWidth="1" style="58" min="6" max="6"/>
-    <col width="10.3125" customWidth="1" style="58" min="7" max="7"/>
-    <col width="20.6875" customWidth="1" style="58" min="8" max="8"/>
-    <col width="20.8125" customWidth="1" style="58" min="9" max="9"/>
+    <col width="7.6640625" customWidth="1" style="58" min="4" max="4"/>
+    <col width="19.6640625" customWidth="1" style="58" min="5" max="5"/>
+    <col width="13.33203125" customWidth="1" style="58" min="6" max="6"/>
+    <col width="10.33203125" customWidth="1" style="58" min="7" max="7"/>
+    <col width="20.6640625" customWidth="1" style="58" min="8" max="8"/>
+    <col width="20.83203125" customWidth="1" style="58" min="9" max="9"/>
     <col width="19.5" customWidth="1" style="58" min="10" max="10"/>
     <col width="18.5" customWidth="1" style="58" min="11" max="11"/>
-    <col width="7.6875" customWidth="1" style="58" min="12" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="12" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -2506,7 +2505,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+    <row r="2">
       <c r="A2" s="43" t="inlineStr">
         <is>
           <t>NREL 2012 Study Data</t>
@@ -2519,7 +2518,7 @@
       <c r="F2" s="43" t="n"/>
       <c r="I2" s="1" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Because much of this data is &lt;1 GW, I use a 60% capacity</t>
@@ -2537,7 +2536,7 @@
       </c>
       <c r="I3" s="29" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>State</t>
@@ -2570,7 +2569,7 @@
       </c>
       <c r="I4" s="29" t="n"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -2589,7 +2588,7 @@
       </c>
       <c r="I5" s="29" t="n"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -2608,7 +2607,7 @@
       </c>
       <c r="I6" s="29" t="n"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -2627,7 +2626,7 @@
       </c>
       <c r="I7" s="29" t="n"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -2646,7 +2645,7 @@
       </c>
       <c r="I8" s="29" t="n"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -2665,7 +2664,7 @@
       </c>
       <c r="I9" s="29" t="n"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -2684,7 +2683,7 @@
       </c>
       <c r="I10" s="29" t="n"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -2703,7 +2702,7 @@
       </c>
       <c r="I11" s="29" t="n"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -2722,7 +2721,7 @@
       </c>
       <c r="I12" s="29" t="n"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -2741,7 +2740,7 @@
       </c>
       <c r="I13" s="29" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -2760,7 +2759,7 @@
       </c>
       <c r="I14" s="29" t="n"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -2798,7 +2797,7 @@
       <c r="Y15" s="29" t="n"/>
       <c r="Z15" s="29" t="n"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -2836,7 +2835,7 @@
       <c r="Y16" s="29" t="n"/>
       <c r="Z16" s="29" t="n"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -2874,7 +2873,7 @@
       <c r="Y17" s="29" t="n"/>
       <c r="Z17" s="29" t="n"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -2912,7 +2911,7 @@
       <c r="Y18" s="29" t="n"/>
       <c r="Z18" s="29" t="n"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -2950,7 +2949,7 @@
       <c r="Y19" s="29" t="n"/>
       <c r="Z19" s="29" t="n"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -5712,21 +5711,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="37.5" customWidth="1" style="58" min="8" max="8"/>
-    <col width="20.8125" customWidth="1" style="58" min="10" max="10"/>
+    <col width="20.83203125" customWidth="1" style="58" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="58">
-      <c r="A1" s="66" t="inlineStr">
+      <c r="A1" s="67" t="inlineStr">
         <is>
           <t>Observed and Total Population for the U.S. and the States, 2010-2040</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
-      <c r="A2" s="67" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="68" t="inlineStr">
         <is>
           <t>Updated on Dec 2018 by the Weldon Cooper Center for Public Service, Demographics Research Group, www.demographics.coopercenter.org</t>
         </is>
@@ -5736,18 +5735,18 @@
       <c r="I2" s="20" t="n"/>
       <c r="J2" s="20" t="n"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
-      <c r="A3" s="68" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="69" t="inlineStr">
         <is>
           <t>FIPS</t>
         </is>
       </c>
-      <c r="B3" s="68" t="inlineStr">
+      <c r="B3" s="69" t="inlineStr">
         <is>
           <t>Geography Name</t>
         </is>
       </c>
-      <c r="C3" s="69" t="inlineStr">
+      <c r="C3" s="70" t="inlineStr">
         <is>
           <t>Total Population</t>
         </is>
@@ -5757,7 +5756,7 @@
       <c r="I3" s="20" t="n"/>
       <c r="J3" s="20" t="n"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
+    <row r="4">
       <c r="C4" s="10" t="n">
         <v>2020</v>
       </c>
@@ -5777,7 +5776,7 @@
       <c r="I4" s="20" t="n"/>
       <c r="J4" s="20" t="n"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="58">
+    <row r="5">
       <c r="A5" s="14" t="n"/>
       <c r="B5" s="15" t="inlineStr">
         <is>
@@ -5802,7 +5801,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="58">
+    <row r="6">
       <c r="A6" s="10" t="n">
         <v>1</v>
       </c>
@@ -5838,7 +5837,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="58">
+    <row r="7">
       <c r="A7" s="24" t="n">
         <v>2</v>
       </c>
@@ -5864,7 +5863,7 @@
       <c r="I7" s="20" t="n"/>
       <c r="J7" s="20" t="n"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="58">
+    <row r="8">
       <c r="A8" s="10" t="n">
         <v>4</v>
       </c>
@@ -5894,7 +5893,7 @@
       <c r="I8" s="20" t="n"/>
       <c r="J8" s="20" t="n"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="58">
+    <row r="9">
       <c r="A9" s="24" t="n">
         <v>5</v>
       </c>
@@ -5930,7 +5929,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="58">
+    <row r="10">
       <c r="A10" s="10" t="n">
         <v>6</v>
       </c>
@@ -5966,7 +5965,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="58">
+    <row r="11">
       <c r="A11" s="24" t="n">
         <v>8</v>
       </c>
@@ -6002,7 +6001,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="58">
+    <row r="12">
       <c r="A12" s="10" t="n">
         <v>9</v>
       </c>
@@ -6038,7 +6037,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="58">
+    <row r="13">
       <c r="A13" s="24" t="n">
         <v>10</v>
       </c>
@@ -6074,7 +6073,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="58">
+    <row r="14">
       <c r="A14" s="10" t="n">
         <v>11</v>
       </c>
@@ -6100,7 +6099,7 @@
       <c r="I14" s="20" t="n"/>
       <c r="J14" s="20" t="n"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="58">
+    <row r="15">
       <c r="A15" s="24" t="n">
         <v>12</v>
       </c>
@@ -6136,7 +6135,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="58">
+    <row r="16">
       <c r="A16" s="10" t="n">
         <v>13</v>
       </c>
@@ -6166,7 +6165,7 @@
       <c r="I16" s="20" t="n"/>
       <c r="J16" s="20" t="n"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="58">
+    <row r="17">
       <c r="A17" s="24" t="n">
         <v>15</v>
       </c>
@@ -6192,7 +6191,7 @@
       <c r="I17" s="20" t="n"/>
       <c r="J17" s="20" t="n"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="58">
+    <row r="18">
       <c r="A18" s="10" t="n">
         <v>16</v>
       </c>
@@ -6222,7 +6221,7 @@
       <c r="I18" s="20" t="n"/>
       <c r="J18" s="20" t="n"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="58">
+    <row r="19">
       <c r="A19" s="24" t="n">
         <v>17</v>
       </c>
@@ -6252,7 +6251,7 @@
       <c r="I19" s="20" t="n"/>
       <c r="J19" s="20" t="n"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="58">
+    <row r="20">
       <c r="A20" s="10" t="n">
         <v>18</v>
       </c>
@@ -6282,7 +6281,7 @@
       <c r="I20" s="20" t="n"/>
       <c r="J20" s="20" t="n"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="58">
+    <row r="21">
       <c r="A21" s="24" t="n">
         <v>19</v>
       </c>
@@ -6308,7 +6307,7 @@
       <c r="I21" s="20" t="n"/>
       <c r="J21" s="20" t="n"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="58">
+    <row r="22">
       <c r="A22" s="10" t="n">
         <v>20</v>
       </c>
@@ -6340,7 +6339,7 @@
       </c>
       <c r="J22" s="20" t="n"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="58">
+    <row r="23">
       <c r="A23" s="24" t="n">
         <v>21</v>
       </c>
@@ -6372,7 +6371,7 @@
       </c>
       <c r="J23" s="20" t="n"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="58">
+    <row r="24">
       <c r="A24" s="10" t="n">
         <v>22</v>
       </c>
@@ -6398,7 +6397,7 @@
       <c r="I24" s="20" t="n"/>
       <c r="J24" s="20" t="n"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="58">
+    <row r="25">
       <c r="A25" s="24" t="n">
         <v>23</v>
       </c>
@@ -6424,7 +6423,7 @@
       <c r="I25" s="20" t="n"/>
       <c r="J25" s="20" t="n"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="58">
+    <row r="26">
       <c r="A26" s="10" t="n">
         <v>24</v>
       </c>
@@ -6450,7 +6449,7 @@
       <c r="I26" s="20" t="n"/>
       <c r="J26" s="20" t="n"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="58">
+    <row r="27">
       <c r="A27" s="24" t="n">
         <v>25</v>
       </c>
@@ -6476,7 +6475,7 @@
       <c r="I27" s="20" t="n"/>
       <c r="J27" s="20" t="n"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="58">
+    <row r="28">
       <c r="A28" s="10" t="n">
         <v>26</v>
       </c>
@@ -6502,7 +6501,7 @@
       <c r="I28" s="20" t="n"/>
       <c r="J28" s="20" t="n"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="58">
+    <row r="29">
       <c r="A29" s="24" t="n">
         <v>27</v>
       </c>
@@ -6528,7 +6527,7 @@
       <c r="I29" s="20" t="n"/>
       <c r="J29" s="20" t="n"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="58">
+    <row r="30">
       <c r="A30" s="10" t="n">
         <v>28</v>
       </c>
@@ -6554,7 +6553,7 @@
       <c r="I30" s="20" t="n"/>
       <c r="J30" s="20" t="n"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="58">
+    <row r="31">
       <c r="A31" s="24" t="n">
         <v>29</v>
       </c>
@@ -6580,7 +6579,7 @@
       <c r="I31" s="20" t="n"/>
       <c r="J31" s="20" t="n"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="58">
+    <row r="32">
       <c r="A32" s="10" t="n">
         <v>30</v>
       </c>
@@ -6606,7 +6605,7 @@
       <c r="I32" s="20" t="n"/>
       <c r="J32" s="20" t="n"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="58">
+    <row r="33">
       <c r="A33" s="24" t="n">
         <v>31</v>
       </c>
@@ -6632,7 +6631,7 @@
       <c r="I33" s="20" t="n"/>
       <c r="J33" s="20" t="n"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="58">
+    <row r="34">
       <c r="A34" s="10" t="n">
         <v>32</v>
       </c>
@@ -6658,7 +6657,7 @@
       <c r="I34" s="20" t="n"/>
       <c r="J34" s="20" t="n"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="58">
+    <row r="35">
       <c r="A35" s="24" t="n">
         <v>33</v>
       </c>
@@ -6684,7 +6683,7 @@
       <c r="I35" s="20" t="n"/>
       <c r="J35" s="20" t="n"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="58">
+    <row r="36">
       <c r="A36" s="10" t="n">
         <v>34</v>
       </c>
@@ -6710,7 +6709,7 @@
       <c r="I36" s="20" t="n"/>
       <c r="J36" s="20" t="n"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="58">
+    <row r="37">
       <c r="A37" s="24" t="n">
         <v>35</v>
       </c>
@@ -6736,7 +6735,7 @@
       <c r="I37" s="20" t="n"/>
       <c r="J37" s="20" t="n"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="58">
+    <row r="38">
       <c r="A38" s="10" t="n">
         <v>36</v>
       </c>
@@ -6762,7 +6761,7 @@
       <c r="I38" s="20" t="n"/>
       <c r="J38" s="20" t="n"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="58">
+    <row r="39">
       <c r="A39" s="24" t="n">
         <v>37</v>
       </c>
@@ -6788,7 +6787,7 @@
       <c r="I39" s="20" t="n"/>
       <c r="J39" s="20" t="n"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="58">
+    <row r="40">
       <c r="A40" s="10" t="n">
         <v>38</v>
       </c>
@@ -6814,7 +6813,7 @@
       <c r="I40" s="20" t="n"/>
       <c r="J40" s="20" t="n"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="58">
+    <row r="41">
       <c r="A41" s="24" t="n">
         <v>39</v>
       </c>
@@ -6840,7 +6839,7 @@
       <c r="I41" s="20" t="n"/>
       <c r="J41" s="20" t="n"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="58">
+    <row r="42">
       <c r="A42" s="10" t="n">
         <v>40</v>
       </c>
@@ -6866,7 +6865,7 @@
       <c r="I42" s="20" t="n"/>
       <c r="J42" s="20" t="n"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="58">
+    <row r="43">
       <c r="A43" s="24" t="n">
         <v>41</v>
       </c>
@@ -6892,7 +6891,7 @@
       <c r="I43" s="20" t="n"/>
       <c r="J43" s="20" t="n"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="58">
+    <row r="44">
       <c r="A44" s="10" t="n">
         <v>42</v>
       </c>
@@ -6918,7 +6917,7 @@
       <c r="I44" s="20" t="n"/>
       <c r="J44" s="20" t="n"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1" s="58">
+    <row r="45">
       <c r="A45" s="24" t="n">
         <v>44</v>
       </c>
@@ -6944,7 +6943,7 @@
       <c r="I45" s="20" t="n"/>
       <c r="J45" s="20" t="n"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1" s="58">
+    <row r="46">
       <c r="A46" s="10" t="n">
         <v>45</v>
       </c>
@@ -6970,7 +6969,7 @@
       <c r="I46" s="20" t="n"/>
       <c r="J46" s="20" t="n"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1" s="58">
+    <row r="47">
       <c r="A47" s="24" t="n">
         <v>46</v>
       </c>
@@ -6996,7 +6995,7 @@
       <c r="I47" s="20" t="n"/>
       <c r="J47" s="20" t="n"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1" s="58">
+    <row r="48">
       <c r="A48" s="10" t="n">
         <v>47</v>
       </c>
@@ -7022,7 +7021,7 @@
       <c r="I48" s="20" t="n"/>
       <c r="J48" s="20" t="n"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1" s="58">
+    <row r="49">
       <c r="A49" s="24" t="n">
         <v>48</v>
       </c>
@@ -7048,7 +7047,7 @@
       <c r="I49" s="20" t="n"/>
       <c r="J49" s="20" t="n"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1" s="58">
+    <row r="50">
       <c r="A50" s="10" t="n">
         <v>49</v>
       </c>
@@ -7074,7 +7073,7 @@
       <c r="I50" s="20" t="n"/>
       <c r="J50" s="20" t="n"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1" s="58">
+    <row r="51">
       <c r="A51" s="24" t="n">
         <v>50</v>
       </c>
@@ -7100,7 +7099,7 @@
       <c r="I51" s="20" t="n"/>
       <c r="J51" s="20" t="n"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1" s="58">
+    <row r="52">
       <c r="A52" s="10" t="n">
         <v>51</v>
       </c>
@@ -7126,7 +7125,7 @@
       <c r="I52" s="20" t="n"/>
       <c r="J52" s="20" t="n"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1" s="58">
+    <row r="53">
       <c r="A53" s="24" t="n">
         <v>53</v>
       </c>
@@ -7152,7 +7151,7 @@
       <c r="I53" s="20" t="n"/>
       <c r="J53" s="20" t="n"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1" s="58">
+    <row r="54">
       <c r="A54" s="10" t="n">
         <v>54</v>
       </c>
@@ -7178,7 +7177,7 @@
       <c r="I54" s="20" t="n"/>
       <c r="J54" s="20" t="n"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1" s="58">
+    <row r="55">
       <c r="A55" s="24" t="n">
         <v>55</v>
       </c>
@@ -7204,7 +7203,7 @@
       <c r="I55" s="20" t="n"/>
       <c r="J55" s="20" t="n"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1" s="58">
+    <row r="56">
       <c r="A56" s="10" t="n">
         <v>56</v>
       </c>
@@ -7230,8 +7229,8 @@
       <c r="I56" s="20" t="n"/>
       <c r="J56" s="20" t="n"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1" s="58">
-      <c r="A57" s="70" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="71" t="inlineStr">
         <is>
           <t>Subgroups may not sum to total due to rounding</t>
         </is>
@@ -7270,14 +7269,14 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="19.1875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="23.8125" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="19.1640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="23.83203125" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Electricity Source</t>
@@ -7289,7 +7288,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+    <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>hard coal</t>
@@ -7300,7 +7299,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>natural gas nonpeaker</t>
@@ -7311,7 +7310,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="58">
+    <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
           <t>nuclear</t>
@@ -7322,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="58">
+    <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
           <t>hydro</t>
@@ -7333,7 +7332,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="58">
+    <row r="6">
       <c r="A6" s="12" t="inlineStr">
         <is>
           <t>onshore wind</t>
@@ -7344,7 +7343,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="58">
+    <row r="7">
       <c r="A7" s="12" t="inlineStr">
         <is>
           <t>solar PV</t>
@@ -7355,7 +7354,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="58">
+    <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
           <t>solar thermal</t>
@@ -7366,7 +7365,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="58">
+    <row r="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
           <t>biomass</t>
@@ -7377,7 +7376,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="58">
+    <row r="10">
       <c r="A10" s="12" t="inlineStr">
         <is>
           <t>geothermal</t>
@@ -7388,7 +7387,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="58">
+    <row r="11">
       <c r="A11" s="12" t="inlineStr">
         <is>
           <t>petroleum</t>
@@ -7399,7 +7398,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="58">
+    <row r="12">
       <c r="A12" s="12" t="inlineStr">
         <is>
           <t>natural gas peaker</t>
@@ -7410,7 +7409,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="58">
+    <row r="13">
       <c r="A13" s="12" t="inlineStr">
         <is>
           <t>lignite</t>
@@ -7421,7 +7420,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="58">
+    <row r="14">
       <c r="A14" s="12" t="inlineStr">
         <is>
           <t>offshore wind</t>
@@ -7432,7 +7431,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="58">
+    <row r="15">
       <c r="A15" s="12" t="inlineStr">
         <is>
           <t>crude oil</t>
@@ -7442,7 +7441,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="58">
+    <row r="16">
       <c r="A16" s="12" t="inlineStr">
         <is>
           <t>heavy or residual fuel oil</t>
@@ -7452,7 +7451,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="58">
+    <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
           <t>municipal solid waste</t>
@@ -8461,12 +8460,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="58">
+    <row r="1" ht="16" customHeight="1" s="58">
       <c r="A1" s="30">
         <f>About!B2</f>
         <v/>
@@ -10596,14 +10595,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="11.6875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="58">
+    <row r="1" ht="16" customHeight="1" s="58">
       <c r="A1" s="30">
         <f>About!B2</f>
         <v/>
@@ -10613,7 +10612,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="58">
+    <row r="3" ht="16" customHeight="1" s="58">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>State</t>
@@ -10630,7 +10629,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -10644,7 +10643,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -10658,7 +10657,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -10672,7 +10671,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -10686,7 +10685,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -10700,7 +10699,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -10714,7 +10713,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -10728,7 +10727,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -10742,7 +10741,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -10756,7 +10755,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -10770,7 +10769,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -10784,7 +10783,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -10798,7 +10797,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -10812,7 +10811,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -10826,7 +10825,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -10840,7 +10839,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -10854,7 +10853,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -12301,12 +12300,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -12316,7 +12315,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="58">
+    <row r="3" ht="16" customHeight="1" s="58">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>State</t>
@@ -12333,7 +12332,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -12344,7 +12343,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -12355,7 +12354,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -12366,7 +12365,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -12377,7 +12376,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -12391,7 +12390,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -12402,7 +12401,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -12416,7 +12415,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -12430,7 +12429,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -12444,7 +12443,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -12455,7 +12454,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -12466,7 +12465,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -12477,7 +12476,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -12491,7 +12490,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -12502,7 +12501,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -12513,7 +12512,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -12524,7 +12523,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -13923,12 +13922,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="9.3125" customWidth="1" style="58" min="1" max="26"/>
+    <col width="9.33203125" customWidth="1" style="58" min="1" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B1</f>
         <v/>
@@ -13949,15 +13948,15 @@
           <t>Capacity by Wind TRG Class (MW)</t>
         </is>
       </c>
-      <c r="C3" s="71" t="n"/>
-      <c r="D3" s="71" t="n"/>
-      <c r="E3" s="71" t="n"/>
-      <c r="F3" s="71" t="n"/>
-      <c r="G3" s="71" t="n"/>
-      <c r="H3" s="71" t="n"/>
-      <c r="I3" s="71" t="n"/>
-      <c r="J3" s="71" t="n"/>
-      <c r="K3" s="72" t="n"/>
+      <c r="C3" s="72" t="n"/>
+      <c r="D3" s="72" t="n"/>
+      <c r="E3" s="72" t="n"/>
+      <c r="F3" s="72" t="n"/>
+      <c r="G3" s="72" t="n"/>
+      <c r="H3" s="72" t="n"/>
+      <c r="I3" s="72" t="n"/>
+      <c r="J3" s="72" t="n"/>
+      <c r="K3" s="73" t="n"/>
       <c r="M3" s="31" t="inlineStr">
         <is>
           <t>State</t>
@@ -17463,14 +17462,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="11.6875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="11.6640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -17480,7 +17479,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="58">
+    <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
           <t>State</t>
@@ -17507,7 +17506,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -17529,7 +17528,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -17547,7 +17546,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -17565,7 +17564,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -17583,7 +17582,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -17601,7 +17600,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -17619,7 +17618,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -17637,7 +17636,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -17655,7 +17654,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -17673,7 +17672,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -17691,7 +17690,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -17709,7 +17708,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -17727,7 +17726,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -17745,7 +17744,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -17763,7 +17762,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -17781,7 +17780,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -17799,7 +17798,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -19378,14 +19377,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.6875" customWidth="1" style="58" min="1" max="1"/>
-    <col width="12.1875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="7.6875" customWidth="1" style="58" min="3" max="26"/>
+    <col width="7.6640625" customWidth="1" style="58" min="1" max="1"/>
+    <col width="12.1640625" customWidth="1" style="58" min="2" max="2"/>
+    <col width="7.6640625" customWidth="1" style="58" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" s="58">
+    <row r="1">
       <c r="A1" s="12">
         <f>About!B2</f>
         <v/>
@@ -19395,7 +19394,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="58">
+    <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
           <t>State</t>
@@ -19412,7 +19411,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="58">
+    <row r="3" ht="16" customHeight="1" s="58">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>AL</t>
@@ -19426,7 +19425,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="58">
+    <row r="4" ht="16" customHeight="1" s="58">
       <c r="A4" s="30" t="inlineStr">
         <is>
           <t>AK</t>
@@ -19440,7 +19439,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="58">
+    <row r="5" ht="16" customHeight="1" s="58">
       <c r="A5" s="30" t="inlineStr">
         <is>
           <t>AZ</t>
@@ -19454,7 +19453,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="58">
+    <row r="6" ht="16" customHeight="1" s="58">
       <c r="A6" s="30" t="inlineStr">
         <is>
           <t>AR</t>
@@ -19468,7 +19467,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="58">
+    <row r="7" ht="16" customHeight="1" s="58">
       <c r="A7" s="30" t="inlineStr">
         <is>
           <t>CA</t>
@@ -19482,7 +19481,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="58">
+    <row r="8" ht="16" customHeight="1" s="58">
       <c r="A8" s="30" t="inlineStr">
         <is>
           <t>CO</t>
@@ -19496,7 +19495,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="58">
+    <row r="9" ht="16" customHeight="1" s="58">
       <c r="A9" s="30" t="inlineStr">
         <is>
           <t>CT</t>
@@ -19510,7 +19509,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="58">
+    <row r="10" ht="16" customHeight="1" s="58">
       <c r="A10" s="30" t="inlineStr">
         <is>
           <t>DE</t>
@@ -19524,7 +19523,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="58">
+    <row r="11" ht="16" customHeight="1" s="58">
       <c r="A11" s="30" t="inlineStr">
         <is>
           <t>FL</t>
@@ -19538,7 +19537,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="58">
+    <row r="12" ht="16" customHeight="1" s="58">
       <c r="A12" s="30" t="inlineStr">
         <is>
           <t>GA</t>
@@ -19552,7 +19551,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="58">
+    <row r="13" ht="16" customHeight="1" s="58">
       <c r="A13" s="30" t="inlineStr">
         <is>
           <t>HI</t>
@@ -19572,7 +19571,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="58">
+    <row r="14" ht="16" customHeight="1" s="58">
       <c r="A14" s="30" t="inlineStr">
         <is>
           <t>ID</t>
@@ -19586,7 +19585,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="58">
+    <row r="15" ht="16" customHeight="1" s="58">
       <c r="A15" s="30" t="inlineStr">
         <is>
           <t>IL</t>
@@ -19600,7 +19599,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
+    <row r="16" ht="16" customHeight="1" s="58">
       <c r="A16" s="30" t="inlineStr">
         <is>
           <t>IN</t>
@@ -19615,7 +19614,7 @@
       </c>
       <c r="F16" s="42" t="n"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+    <row r="17" ht="16" customHeight="1" s="58">
       <c r="A17" s="30" t="inlineStr">
         <is>
           <t>IA</t>
@@ -19629,7 +19628,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="58">
+    <row r="18" ht="16" customHeight="1" s="58">
       <c r="A18" s="30" t="inlineStr">
         <is>
           <t>KS</t>
@@ -19643,7 +19642,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="58">
+    <row r="19" ht="16" customHeight="1" s="58">
       <c r="A19" s="30" t="inlineStr">
         <is>
           <t>KY</t>
@@ -19657,7 +19656,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="58">
+    <row r="20" ht="16" customHeight="1" s="58">
       <c r="A20" s="30" t="inlineStr">
         <is>
           <t>LA</t>
